--- a/biology/Botanique/Seseli/Seseli.xlsx
+++ b/biology/Botanique/Seseli/Seseli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Séséli
-Seseli, le Séséli[1], est un genre de plantes herbacées de la famille des Apiaceae (Ombellifères), sous-famille des Apioideae, tribu des Selineae.
-Les graines de la plante appelée Séséli de Marseille (= Seseli tortuosum) étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle[2].
+Seseli, le Séséli, est un genre de plantes herbacées de la famille des Apiaceae (Ombellifères), sous-famille des Apioideae, tribu des Selineae.
+Les graines de la plante appelée Séséli de Marseille (= Seseli tortuosum) étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté par plus d'une centaine d'espèces dans toute l'Eurasie et en Afrique du Nord (paléarctique)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté par plus d'une centaine d'espèces dans toute l'Eurasie et en Afrique du Nord (paléarctique).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Seseli libanotis (L.) W.D.J.Koch - le Libanotis en français (synonyme actuel : Libanotis pyrenaica (L.) O.Schwarz, 1949)
 Seseli annuum L. - Séséli des steppes
@@ -580,9 +596,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 novembre 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 novembre 2023) :
 Seseli abolinii (Korovin) Schischk.
 Seseli acaulis (R.H.Shan &amp; M.L.Sheh) V.M.Vinogr.
 Seseli aemulans Popov
@@ -755,9 +773,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (12 novembre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (12 novembre 2023) :
 Bakeros Raf. in Good Book: 51 (1840)
 Balinotella Soják in Zprávy Krajsk. Vlastiv. Muz. Olomouci 215: 3 (1982)
 Cremastosciadium Rech.f. in Biol. Skr. 13(4): 47 (1963)
